--- a/SourceDataTables/FigS18.xlsx
+++ b/SourceDataTables/FigS18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
   <si>
     <t>S18_xdata</t>
   </si>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -79,14 +79,34 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,40 +134,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
     </row>

--- a/SourceDataTables/FigS18.xlsx
+++ b/SourceDataTables/FigS18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>S18_xdata</t>
   </si>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -89,11 +89,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -107,6 +109,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -134,40 +138,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
     </row>

--- a/SourceDataTables/FigS18.xlsx
+++ b/SourceDataTables/FigS18.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>S18_xdata</t>
   </si>
@@ -69,7 +69,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -79,38 +79,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,7 +99,7 @@
   <dimension ref="A1:L251"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
@@ -138,46 +114,46 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.71764677089406936</v>
+        <v>0.71873543267179885</v>
       </c>
       <c r="B2">
         <v>25.238454721514497</v>
@@ -215,7 +191,7 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.53257982949412408</v>
+        <v>0.53366764969111757</v>
       </c>
       <c r="B3">
         <v>22.363148639246493</v>
@@ -253,7 +229,7 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1.1272601443705443</v>
+        <v>1.1282300739064479</v>
       </c>
       <c r="B4">
         <v>22.821897294428858</v>
@@ -291,7 +267,7 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>1.0328286877094444</v>
+        <v>1.0322496376808061</v>
       </c>
       <c r="B5">
         <v>23.028471895031164</v>
@@ -329,7 +305,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.22556634669379508</v>
+        <v>0.22327697678078159</v>
       </c>
       <c r="B6">
         <v>23.720064482167988</v>
@@ -367,7 +343,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.46040186179111781</v>
+        <v>0.46145547346452159</v>
       </c>
       <c r="B7">
         <v>26.79271927024379</v>
@@ -405,7 +381,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.65935540286751204</v>
+        <v>0.66039230226360857</v>
       </c>
       <c r="B8">
         <v>23.871915664561797</v>
@@ -443,7 +419,7 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1.1346246335861556</v>
+        <v>1.1355756868642422</v>
       </c>
       <c r="B9">
         <v>23.424915975113048</v>
@@ -481,7 +457,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.9352927897457014</v>
+        <v>0.93639458424936961</v>
       </c>
       <c r="B10">
         <v>22.500146532993689</v>
@@ -519,7 +495,7 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>1.2296824403837154</v>
+        <v>1.230264707433909</v>
       </c>
       <c r="B11">
         <v>23.750411955778265</v>
@@ -557,7 +533,7 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.79891610106647437</v>
+        <v>0.79863335259951329</v>
       </c>
       <c r="B12">
         <v>23.699928061476033</v>
@@ -595,7 +571,7 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>1.2183564930368922</v>
+        <v>1.2191181563522027</v>
       </c>
       <c r="B13">
         <v>24.020061123577847</v>
@@ -633,7 +609,7 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.53472848289070773</v>
+        <v>0.53578968174952979</v>
       </c>
       <c r="B14">
         <v>23.824141230134881</v>
@@ -671,7 +647,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.46849335103651185</v>
+        <v>0.46944281627196088</v>
       </c>
       <c r="B15">
         <v>23.910868847292232</v>
@@ -709,7 +685,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.71194142569705432</v>
+        <v>0.71298623961339747</v>
       </c>
       <c r="B16">
         <v>23.977090341517091</v>
@@ -747,7 +723,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>1.1679384444614851</v>
+        <v>1.1685245995455764</v>
       </c>
       <c r="B17">
         <v>23.900874945481853</v>
@@ -785,7 +761,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.94707443039703587</v>
+        <v>0.94804714575709348</v>
       </c>
       <c r="B18">
         <v>22.864558261794013</v>
@@ -823,7 +799,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.94843182892564737</v>
+        <v>0.94946077157312025</v>
       </c>
       <c r="B19">
         <v>23.820438341234553</v>
@@ -861,7 +837,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>1.2636905392898399</v>
+        <v>1.2642463157505179</v>
       </c>
       <c r="B20">
         <v>24.146109233050439</v>
@@ -899,7 +875,7 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.61922185458633872</v>
+        <v>0.61897205811127665</v>
       </c>
       <c r="B21">
         <v>24.370006166110382</v>
@@ -937,7 +913,7 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>1.0892996039519176</v>
+        <v>1.090101812041337</v>
       </c>
       <c r="B22">
         <v>23.42387611680444</v>
@@ -975,7 +951,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.59867612351838206</v>
+        <v>0.59969426834884554</v>
       </c>
       <c r="B23">
         <v>23.660890941378437</v>
@@ -1013,7 +989,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.72413050585170335</v>
+        <v>0.72515655819574232</v>
       </c>
       <c r="B24">
         <v>25.907186162882837</v>
@@ -1051,7 +1027,7 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.64633654283953934</v>
+        <v>0.64763505399455668</v>
       </c>
       <c r="B25">
         <v>28.472711380350464</v>
@@ -1089,7 +1065,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>1.0115700663364382</v>
+        <v>1.012512205026846</v>
       </c>
       <c r="B26">
         <v>19.651645603036521</v>
@@ -1127,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.87956235322708498</v>
+        <v>0.88053790388618736</v>
       </c>
       <c r="B27">
         <v>26.042808498514109</v>
@@ -1165,7 +1141,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.020684971439396</v>
+        <v>1.0214834675825037</v>
       </c>
       <c r="B28">
         <v>24.623211934930438</v>
@@ -1203,7 +1179,7 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>1.2486987625794412</v>
+        <v>1.2488224353803363</v>
       </c>
       <c r="B29">
         <v>24.453643526801621</v>
@@ -1241,7 +1217,7 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.96419436579650131</v>
+        <v>0.96503666837696911</v>
       </c>
       <c r="B30">
         <v>20.94029217381631</v>
@@ -1279,7 +1255,7 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1.23428386871888</v>
+        <v>1.234787858697479</v>
       </c>
       <c r="B31">
         <v>23.550176037495213</v>
@@ -1317,7 +1293,7 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.94025722880342544</v>
+        <v>0.94119144263041798</v>
       </c>
       <c r="B32">
         <v>20.540344622311174</v>
@@ -1355,7 +1331,7 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>1.0777525178040157</v>
+        <v>1.0784724511647381</v>
       </c>
       <c r="B33">
         <v>22.445298005211502</v>
@@ -1393,7 +1369,7 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.98749496664619596</v>
+        <v>0.98825121240743552</v>
       </c>
       <c r="B34">
         <v>22.518058579034481</v>
@@ -1431,7 +1407,7 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>1.2120388893763101</v>
+        <v>1.2126458211293996</v>
       </c>
       <c r="B35">
         <v>24.201396274745576</v>
@@ -1469,7 +1445,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.77483534475829252</v>
+        <v>0.77587757374542587</v>
       </c>
       <c r="B36">
         <v>25.165815171741304</v>
@@ -1507,7 +1483,7 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>1.0257275417911365</v>
+        <v>1.0266081250473109</v>
       </c>
       <c r="B37">
         <v>28.120456301145293</v>
@@ -1545,7 +1521,7 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.2117486354771991</v>
+        <v>1.2117035574512041</v>
       </c>
       <c r="B38">
         <v>25.257809995721889</v>
@@ -1583,7 +1559,7 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.085717363671249269</v>
+        <v>0.089560900809852448</v>
       </c>
       <c r="B39">
         <v>32.804399045308429</v>
@@ -1621,7 +1597,7 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>1.0230164522274294</v>
+        <v>1.023838599170992</v>
       </c>
       <c r="B40">
         <v>22.227659332618284</v>
@@ -1659,7 +1635,7 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.397198736825007</v>
+        <v>-0.3949306577442111</v>
       </c>
       <c r="B41">
         <v>32.38710101875099</v>
@@ -1697,7 +1673,7 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>1.0194400739449039</v>
+        <v>1.0200946134124989</v>
       </c>
       <c r="B42">
         <v>22.450711823777105</v>
@@ -1735,7 +1711,7 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>1.1143832569578596</v>
+        <v>1.1149426370312558</v>
       </c>
       <c r="B43">
         <v>26.875581338030354</v>
@@ -1773,7 +1749,7 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>1.1765694485020151</v>
+        <v>1.1773009240113945</v>
       </c>
       <c r="B44">
         <v>26.710913149058388</v>
@@ -1811,7 +1787,7 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>1.0279703780144396</v>
+        <v>1.0287851961480285</v>
       </c>
       <c r="B45">
         <v>23.371248088470878</v>
@@ -1849,7 +1825,7 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.92646791071432022</v>
+        <v>0.92747483617414828</v>
       </c>
       <c r="B46">
         <v>26.556251256152837</v>
@@ -1887,7 +1863,7 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.68211434885565692</v>
+        <v>0.68356163739887277</v>
       </c>
       <c r="B47">
         <v>30.251855200785069</v>
@@ -1925,7 +1901,7 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.1179568531163169</v>
+        <v>1.1185717618895883</v>
       </c>
       <c r="B48">
         <v>25.686696275186041</v>
@@ -1963,7 +1939,7 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.35578218373838</v>
+        <v>0.35905407890947461</v>
       </c>
       <c r="B49">
         <v>28.469911763524095</v>
@@ -2001,7 +1977,7 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>1.0463207301179571</v>
+        <v>1.046988940037179</v>
       </c>
       <c r="B50">
         <v>22.883937294333681</v>
@@ -2039,7 +2015,7 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>1.0945384876019568</v>
+        <v>1.0946140310374777</v>
       </c>
       <c r="B51">
         <v>20.917412114143371</v>
@@ -2077,7 +2053,7 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>-0.40407169565808876</v>
+        <v>-0.40183877833767717</v>
       </c>
       <c r="B52">
         <v>31.81344581856338</v>
@@ -2115,7 +2091,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>1.1221580344107374</v>
+        <v>1.1225358310714044</v>
       </c>
       <c r="B53">
         <v>27.870977796549006</v>
@@ -2153,7 +2129,7 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>1.0215177294609012</v>
+        <v>1.0221837047508326</v>
       </c>
       <c r="B54">
         <v>21.722260811832491</v>
@@ -2191,7 +2167,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>1.0749719374258491</v>
+        <v>1.0750065929810078</v>
       </c>
       <c r="B55">
         <v>31.441775766359704</v>
@@ -2229,7 +2205,7 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>1.0589146559187046</v>
+        <v>1.0595327413186197</v>
       </c>
       <c r="B56">
         <v>24.300506213403516</v>
@@ -2267,7 +2243,7 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.38835795491807934</v>
+        <v>-0.38473813386790179</v>
       </c>
       <c r="B57">
         <v>24.92379287323217</v>
@@ -2305,7 +2281,7 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.097793099602085</v>
+        <v>1.0981662155136995</v>
       </c>
       <c r="B58">
         <v>25.83477187045785</v>
@@ -2343,7 +2319,7 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>1.0741798218782033</v>
+        <v>1.074844830343028</v>
       </c>
       <c r="B59">
         <v>24.472284412384035</v>
@@ -2381,7 +2357,7 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>1.1347145614052063</v>
+        <v>1.1349970971798913</v>
       </c>
       <c r="B60">
         <v>25.538499269329133</v>
@@ -2419,7 +2395,7 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>1.1085162347877036</v>
+        <v>1.1086870779342561</v>
       </c>
       <c r="B61">
         <v>24.675905719104115</v>
@@ -2457,7 +2433,7 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>1.0472394360927357</v>
+        <v>1.0477831404331339</v>
       </c>
       <c r="B62">
         <v>22.613964408991489</v>
@@ -2495,7 +2471,7 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.5061011606852831</v>
+        <v>-0.50231495766786982</v>
       </c>
       <c r="B63">
         <v>25.67732959248573</v>
@@ -2533,7 +2509,7 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>-0.74512719730759802</v>
+        <v>-0.74171479034628796</v>
       </c>
       <c r="B64">
         <v>25.003068172913959</v>
@@ -2571,7 +2547,7 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.94001574512563135</v>
+        <v>0.94060690388003609</v>
       </c>
       <c r="B65">
         <v>42.106761366297931</v>
@@ -2609,7 +2585,7 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>1.2102510821413732</v>
+        <v>1.2107567502365901</v>
       </c>
       <c r="B66">
         <v>27.463967164357502</v>
@@ -2647,7 +2623,7 @@
     </row>
     <row r="67">
       <c r="A67">
-        <v>-1.2339791371681026</v>
+        <v>-1.2312777738246199</v>
       </c>
       <c r="B67">
         <v>34.032759631474811</v>
@@ -2685,7 +2661,7 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.0486866341405341</v>
+        <v>1.0491259774152377</v>
       </c>
       <c r="B68">
         <v>20.775163834878555</v>
@@ -2723,7 +2699,7 @@
     </row>
     <row r="69">
       <c r="A69">
-        <v>-0.41580587439988514</v>
+        <v>-0.41357406446627443</v>
       </c>
       <c r="B69">
         <v>26.785099266466368</v>
@@ -2761,7 +2737,7 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>1.1253379228169891</v>
+        <v>1.1257485840229804</v>
       </c>
       <c r="B70">
         <v>22.396928428685168</v>
@@ -2799,7 +2775,7 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>1.1933469461255366</v>
+        <v>1.1937421418076031</v>
       </c>
       <c r="B71">
         <v>34.668542889481415</v>
@@ -2837,7 +2813,7 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.17790410152386629</v>
+        <v>-0.17411846402159445</v>
       </c>
       <c r="B72">
         <v>23.648672057964184</v>
@@ -2875,7 +2851,7 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>1.0227733894363751</v>
+        <v>1.0233950683401083</v>
       </c>
       <c r="B73">
         <v>24.892056590980953</v>
@@ -2913,7 +2889,7 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>-0.81660728768730206</v>
+        <v>-0.8131754055612368</v>
       </c>
       <c r="B74">
         <v>27.101221462799376</v>
@@ -2951,7 +2927,7 @@
     </row>
     <row r="75">
       <c r="A75">
-        <v>1.1133407610463799</v>
+        <v>1.1131207863800883</v>
       </c>
       <c r="B75">
         <v>30.089592649927301</v>
@@ -2989,7 +2965,7 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>1.0818852810883675</v>
+        <v>1.0824096336859306</v>
       </c>
       <c r="B76">
         <v>23.68479500399291</v>
@@ -3027,7 +3003,7 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.93535034870360878</v>
+        <v>0.93456177175084998</v>
       </c>
       <c r="B77">
         <v>36.234666248373628</v>
@@ -3065,7 +3041,7 @@
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.067737453944223</v>
+        <v>1.0677421306154942</v>
       </c>
       <c r="B78">
         <v>20.571827019963944</v>
@@ -3103,7 +3079,7 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>1.053855411772906</v>
+        <v>1.0542166080170103</v>
       </c>
       <c r="B79">
         <v>24.115251424162309</v>
@@ -3141,7 +3117,7 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>1.1042142497859666</v>
+        <v>1.1042855825465883</v>
       </c>
       <c r="B80">
         <v>24.51425335998535</v>
@@ -3179,7 +3155,7 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>1.0698047972877609</v>
+        <v>1.0702935483432883</v>
       </c>
       <c r="B81">
         <v>21.840280273480726</v>
@@ -3217,7 +3193,7 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>1.0606864041521438</v>
+        <v>1.0610582369962198</v>
       </c>
       <c r="B82">
         <v>22.42594828929716</v>
@@ -3255,7 +3231,7 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.65628919034653721</v>
+        <v>-0.65309196493468158</v>
       </c>
       <c r="B83">
         <v>25.109825695950562</v>
@@ -3293,7 +3269,7 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.77905289436029124</v>
+        <v>-0.7758677745503828</v>
       </c>
       <c r="B84">
         <v>27.864080403790329</v>
@@ -3331,7 +3307,7 @@
     </row>
     <row r="85">
       <c r="A85">
-        <v>-0.72428168132560711</v>
+        <v>-0.72076973594667315</v>
       </c>
       <c r="B85">
         <v>25.536497098362577</v>
@@ -3369,7 +3345,7 @@
     </row>
     <row r="86">
       <c r="A86">
-        <v>-1.5858852577883382</v>
+        <v>-1.5854805563746519</v>
       </c>
       <c r="B86">
         <v>37.796430651702032</v>
@@ -3407,7 +3383,7 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>-0.77851611707050428</v>
+        <v>-0.77523522340472817</v>
       </c>
       <c r="B87">
         <v>27.313007265951239</v>
@@ -3445,7 +3421,7 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.0952910774186577</v>
+        <v>1.0956937094971739</v>
       </c>
       <c r="B88">
         <v>25.942154285311698</v>
@@ -3483,7 +3459,7 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>1.1611924842631167</v>
+        <v>1.1609783137763994</v>
       </c>
       <c r="B89">
         <v>28.809866718791412</v>
@@ -3521,7 +3497,7 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>1.1977232583308703</v>
+        <v>1.198172321196362</v>
       </c>
       <c r="B90">
         <v>26.688782599296626</v>
@@ -3559,7 +3535,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>-0.97703369527745965</v>
+        <v>-0.97382838618499257</v>
       </c>
       <c r="B91">
         <v>28.73392192170342</v>
@@ -3597,7 +3573,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>1.0669872581324429</v>
+        <v>1.0674011181156122</v>
       </c>
       <c r="B92">
         <v>26.337870434869693</v>
@@ -3635,7 +3611,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>1.0845473886264023</v>
+        <v>1.0849149425982041</v>
       </c>
       <c r="B93">
         <v>22.51050958754141</v>
@@ -3673,7 +3649,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.92786520551266938</v>
+        <v>0.92766869543603026</v>
       </c>
       <c r="B94">
         <v>25.534872802573474</v>
@@ -3711,7 +3687,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.85277482333841403</v>
+        <v>0.85156921231290783</v>
       </c>
       <c r="B95">
         <v>32.728534517564192</v>
@@ -3749,7 +3725,7 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>1.1216169674487761</v>
+        <v>1.1217599900921602</v>
       </c>
       <c r="B96">
         <v>23.53383222855522</v>
@@ -3787,7 +3763,7 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.3004214512584768</v>
+        <v>-0.30348083718362484</v>
       </c>
       <c r="B97">
         <v>36.016287965092154</v>
@@ -3825,7 +3801,7 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.73401384082502852</v>
+        <v>-0.73078469784053812</v>
       </c>
       <c r="B98">
         <v>24.198874614455484</v>
@@ -3863,7 +3839,7 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.84451915814880252</v>
+        <v>0.84354392163013525</v>
       </c>
       <c r="B99">
         <v>26.462302701874872</v>
@@ -3901,7 +3877,7 @@
     </row>
     <row r="100">
       <c r="A100">
-        <v>1.1123406650748904</v>
+        <v>1.1126810258581266</v>
       </c>
       <c r="B100">
         <v>23.819979036625345</v>
@@ -3939,7 +3915,7 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.8427109679812651</v>
+        <v>-0.83938293332768665</v>
       </c>
       <c r="B101">
         <v>27.505761430813717</v>
@@ -3977,7 +3953,7 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.85288587716437858</v>
+        <v>-0.84957044487506594</v>
       </c>
       <c r="B102">
         <v>27.338506103211003</v>
@@ -4015,7 +3991,7 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>1.1004115851417164</v>
+        <v>1.1000698656303176</v>
       </c>
       <c r="B103">
         <v>27.63665134830562</v>
@@ -4053,7 +4029,7 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.36989889613819926</v>
+        <v>-0.37286113998707526</v>
       </c>
       <c r="B104">
         <v>27.013661006869061</v>
@@ -4091,7 +4067,7 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.91502769358505831</v>
+        <v>-0.91172538120239977</v>
       </c>
       <c r="B105">
         <v>28.218884130646622</v>
@@ -4129,7 +4105,7 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>-0.83173981470849334</v>
+        <v>-0.82842693753883712</v>
       </c>
       <c r="B106">
         <v>27.213340288798015</v>
@@ -4167,7 +4143,7 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.11383754908520587</v>
+        <v>0.11180556592652291</v>
       </c>
       <c r="B107">
         <v>31.845879607819786</v>
@@ -4205,7 +4181,7 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.2270505234349403</v>
+        <v>1.2270592203492463</v>
       </c>
       <c r="B108">
         <v>26.468783238955908</v>
@@ -4243,7 +4219,7 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>1.0942605609166065</v>
+        <v>1.0944549364449132</v>
       </c>
       <c r="B109">
         <v>22.987037461719087</v>
@@ -4281,7 +4257,7 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>1.0913498882585342</v>
+        <v>1.0917679336953101</v>
       </c>
       <c r="B110">
         <v>22.63311861512657</v>
@@ -4319,7 +4295,7 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>1.0107955442849483</v>
+        <v>1.0106260820815454</v>
       </c>
       <c r="B111">
         <v>25.787828693846741</v>
@@ -4357,7 +4333,7 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.77901343114340593</v>
+        <v>0.77832322682579891</v>
       </c>
       <c r="B112">
         <v>28.548357329030676</v>
@@ -4395,7 +4371,7 @@
     </row>
     <row r="113">
       <c r="A113">
-        <v>-1.4383415042083747</v>
+        <v>-1.4373286266476504</v>
       </c>
       <c r="B113">
         <v>34.175040163210966</v>
@@ -4433,7 +4409,7 @@
     </row>
     <row r="114">
       <c r="A114">
-        <v>1.0939033788688295</v>
+        <v>1.0939795512995525</v>
       </c>
       <c r="B114">
         <v>25.083867885331934</v>
@@ -4471,7 +4447,7 @@
     </row>
     <row r="115">
       <c r="A115">
-        <v>1.1619888413886694</v>
+        <v>1.1624729644751828</v>
       </c>
       <c r="B115">
         <v>25.798505664693899</v>
@@ -4509,7 +4485,7 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>-1.199246821538033</v>
+        <v>-1.1963154269422931</v>
       </c>
       <c r="B116">
         <v>30.31687189800066</v>
@@ -4547,7 +4523,7 @@
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.87190180490475411</v>
+        <v>-0.86855602773815022</v>
       </c>
       <c r="B117">
         <v>26.482675117467824</v>
@@ -4585,7 +4561,7 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.1048050858567209</v>
+        <v>1.1049375692919674</v>
       </c>
       <c r="B118">
         <v>23.867094448104442</v>
@@ -4623,7 +4599,7 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>-1.0859299407176071</v>
+        <v>-1.0829556573770087</v>
       </c>
       <c r="B119">
         <v>29.629614496987962</v>
@@ -4661,7 +4637,7 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>1.0849039443779975</v>
+        <v>1.0850369150390424</v>
       </c>
       <c r="B120">
         <v>24.94985895082932</v>
@@ -4699,7 +4675,7 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.84047441113510057</v>
+        <v>-0.83716423770212112</v>
       </c>
       <c r="B121">
         <v>24.082090133557216</v>
@@ -4737,7 +4713,7 @@
     </row>
     <row r="122">
       <c r="A122">
-        <v>-1.4710996780339438</v>
+        <v>-1.4696310890792652</v>
       </c>
       <c r="B122">
         <v>31.494744085196629</v>
@@ -4775,7 +4751,7 @@
     </row>
     <row r="123">
       <c r="A123">
-        <v>0.54857891559189287</v>
+        <v>0.54703621778974532</v>
       </c>
       <c r="B123">
         <v>28.053814929331477</v>
@@ -4813,7 +4789,7 @@
     </row>
     <row r="124">
       <c r="A124">
-        <v>1.1006037892881406</v>
+        <v>1.1007860740347717</v>
       </c>
       <c r="B124">
         <v>22.087435765438769</v>
@@ -4851,7 +4827,7 @@
     </row>
     <row r="125">
       <c r="A125">
-        <v>-1.5389355974025585</v>
+        <v>-1.5406525271115155</v>
       </c>
       <c r="B125">
         <v>34.294923422794582</v>
@@ -4889,7 +4865,7 @@
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.94743819232255222</v>
+        <v>-0.94420169054384084</v>
       </c>
       <c r="B126">
         <v>27.664199063499144</v>
@@ -4927,7 +4903,7 @@
     </row>
     <row r="127">
       <c r="A127">
-        <v>1.0071345775001774</v>
+        <v>1.0068175148494027</v>
       </c>
       <c r="B127">
         <v>24.387629770970605</v>
@@ -4965,7 +4941,7 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>0.95047417432022285</v>
+        <v>0.94979187044870128</v>
       </c>
       <c r="B128">
         <v>24.361843368871426</v>
@@ -5003,7 +4979,7 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>1.1617491260182657</v>
+        <v>1.1615580286164366</v>
       </c>
       <c r="B129">
         <v>25.811735971553905</v>
@@ -5041,7 +5017,7 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.0028182293004927182</v>
+        <v>-0.0051600389685826833</v>
       </c>
       <c r="B130">
         <v>34.180752459162484</v>
@@ -5079,7 +5055,7 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>-1.1989890051309913</v>
+        <v>-1.2000548340552859</v>
       </c>
       <c r="B131">
         <v>31.886200377026444</v>
@@ -5117,7 +5093,7 @@
     </row>
     <row r="132">
       <c r="A132">
-        <v>-1.0283554952544842</v>
+        <v>-1.0253508819796355</v>
       </c>
       <c r="B132">
         <v>27.43557005351996</v>
@@ -5155,7 +5131,7 @@
     </row>
     <row r="133">
       <c r="A133">
-        <v>1.067313019127786</v>
+        <v>1.0671485526973117</v>
       </c>
       <c r="B133">
         <v>22.268018411293191</v>
@@ -5193,7 +5169,7 @@
     </row>
     <row r="134">
       <c r="A134">
-        <v>-0.96768289128873552</v>
+        <v>-0.96438423841487986</v>
       </c>
       <c r="B134">
         <v>25.369079289778</v>
@@ -5231,7 +5207,7 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.58477681026056283</v>
+        <v>0.5844583619298741</v>
       </c>
       <c r="B135">
         <v>27.70420146956215</v>
@@ -5269,7 +5245,7 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>1.0859756286480702</v>
+        <v>1.0857431729491915</v>
       </c>
       <c r="B136">
         <v>23.11265895018516</v>
@@ -5307,7 +5283,7 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.059753860160178363</v>
+        <v>0.058625414449256889</v>
       </c>
       <c r="B137">
         <v>30.762409432674559</v>
@@ -5345,7 +5321,7 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>0.029210568193510447</v>
+        <v>0.027601811304671511</v>
       </c>
       <c r="B138">
         <v>31.983411852075662</v>
@@ -5383,7 +5359,7 @@
     </row>
     <row r="139">
       <c r="A139">
-        <v>1.1688477142482887</v>
+        <v>1.1688867582576914</v>
       </c>
       <c r="B139">
         <v>25.070917062054111</v>
@@ -5421,7 +5397,7 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.8510280147094903</v>
+        <v>0.85029316462046711</v>
       </c>
       <c r="B140">
         <v>27.240007659992987</v>
@@ -5459,7 +5435,7 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>-1.4630168772470844</v>
+        <v>-1.4620042329168854</v>
       </c>
       <c r="B141">
         <v>29.283835749877127</v>
@@ -5497,7 +5473,7 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>-1.0530764875189575</v>
+        <v>-1.0504449722785161</v>
       </c>
       <c r="B142">
         <v>39.007798089325881</v>
@@ -5535,7 +5511,7 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>-1.0724582679382126</v>
+        <v>-1.0692712377681448</v>
       </c>
       <c r="B143">
         <v>27.574740016821657</v>
@@ -5573,7 +5549,7 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>-1.1480759241009864</v>
+        <v>-1.1451133958565727</v>
       </c>
       <c r="B144">
         <v>30.067406652836898</v>
@@ -5611,7 +5587,7 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>-0.97298652793594376</v>
+        <v>-0.96967338452460816</v>
       </c>
       <c r="B145">
         <v>26.188464589253488</v>
@@ -5649,7 +5625,7 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>1.0741160756682169</v>
+        <v>1.0740500427725865</v>
       </c>
       <c r="B146">
         <v>23.513942822135668</v>
@@ -5687,7 +5663,7 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>0.96335911624718207</v>
+        <v>0.96299796890267653</v>
       </c>
       <c r="B147">
         <v>24.511676215837802</v>
@@ -5725,7 +5701,7 @@
     </row>
     <row r="148">
       <c r="A148">
-        <v>0.95918309226872456</v>
+        <v>0.95865136712676613</v>
       </c>
       <c r="B148">
         <v>25.581132276519007</v>
@@ -5763,7 +5739,7 @@
     </row>
     <row r="149">
       <c r="A149">
-        <v>0.45605276471558198</v>
+        <v>0.45442915269870737</v>
       </c>
       <c r="B149">
         <v>28.2908262429847</v>
@@ -5801,7 +5777,7 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>0.19300392504404107</v>
+        <v>0.19099149140293376</v>
       </c>
       <c r="B150">
         <v>30.300702502330143</v>
@@ -5839,7 +5815,7 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>1.0225999985062701</v>
+        <v>1.0223186258134487</v>
       </c>
       <c r="B151">
         <v>22.520081929781806</v>
@@ -5877,7 +5853,7 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.9915360141068259</v>
+        <v>-0.98825728580476868</v>
       </c>
       <c r="B152">
         <v>24.406591128717903</v>
@@ -5915,7 +5891,7 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>-1.4880376715040644</v>
+        <v>-1.4875147697748505</v>
       </c>
       <c r="B153">
         <v>38.429783426272643</v>
@@ -5953,7 +5929,7 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.61976486855143276</v>
+        <v>0.61855763296915489</v>
       </c>
       <c r="B154">
         <v>25.441512386769631</v>
@@ -5991,7 +5967,7 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>-1.5508733182319641</v>
+        <v>-1.5517594024567611</v>
       </c>
       <c r="B155">
         <v>38.999353177250384</v>
@@ -6029,7 +6005,7 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>-1.1967853153682777</v>
+        <v>-1.1939990480005798</v>
       </c>
       <c r="B156">
         <v>28.045679599942055</v>
@@ -6067,7 +6043,7 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.87024796448448649</v>
+        <v>0.86950588413357566</v>
       </c>
       <c r="B157">
         <v>23.527172866575619</v>
@@ -6105,7 +6081,7 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>0.34667350261426361</v>
+        <v>0.34507486481813276</v>
       </c>
       <c r="B158">
         <v>27.95936897573063</v>
@@ -6143,7 +6119,7 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>-1.2006154177119919</v>
+        <v>-1.1976673272638507</v>
       </c>
       <c r="B159">
         <v>26.195996344089508</v>
@@ -6181,7 +6157,7 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.89664730224582589</v>
+        <v>0.89607300846986837</v>
       </c>
       <c r="B160">
         <v>24.393620506776582</v>
@@ -6219,7 +6195,7 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.7624557238258497</v>
+        <v>0.76141477588287321</v>
       </c>
       <c r="B161">
         <v>25.029057237166391</v>
@@ -6257,7 +6233,7 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>-1.4238860219672482</v>
+        <v>-1.4221496077920868</v>
       </c>
       <c r="B162">
         <v>28.062654608698903</v>
@@ -6295,7 +6271,7 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.84969523732585917</v>
+        <v>0.84890601814740663</v>
       </c>
       <c r="B163">
         <v>24.233198590132037</v>
@@ -6333,7 +6309,7 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>-1.0277548167728854</v>
+        <v>-1.0305998719436225</v>
       </c>
       <c r="B164">
         <v>31.743153608645112</v>
@@ -6371,7 +6347,7 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>-1.1020190550194828</v>
+        <v>-1.0989189094543703</v>
       </c>
       <c r="B165">
         <v>23.928341464298526</v>
@@ -6409,7 +6385,7 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>-1.3244678299706827</v>
+        <v>-1.3222401044216947</v>
       </c>
       <c r="B166">
         <v>31.812516324273471</v>
@@ -6447,7 +6423,7 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>-0.89651426925410393</v>
+        <v>-0.89820482315815753</v>
       </c>
       <c r="B167">
         <v>30.421303888882886</v>
@@ -6485,7 +6461,7 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>0.66522258549276192</v>
+        <v>0.66392379099809229</v>
       </c>
       <c r="B168">
         <v>23.333245664940286</v>
@@ -6523,7 +6499,7 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>-1.379171341394116</v>
+        <v>-1.3802222023467203</v>
       </c>
       <c r="B169">
         <v>30.15050446296895</v>
@@ -6561,7 +6537,7 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>0.078025977973817051</v>
+        <v>0.075560186340201299</v>
       </c>
       <c r="B170">
         <v>30.815629729037155</v>
@@ -6599,7 +6575,7 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>-1.1631985770198807</v>
+        <v>-1.1602487638294758</v>
       </c>
       <c r="B171">
         <v>25.49317234821201</v>
@@ -6637,7 +6613,7 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>0.44702273999423731</v>
+        <v>0.4453546997151504</v>
       </c>
       <c r="B172">
         <v>25.476825271393409</v>
@@ -6675,7 +6651,7 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.8391654285557274</v>
+        <v>0.83846552078414904</v>
       </c>
       <c r="B173">
         <v>22.725357842089526</v>
@@ -6713,7 +6689,7 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>0.75938444559774998</v>
+        <v>0.75855416114233276</v>
       </c>
       <c r="B174">
         <v>23.085596987559089</v>
@@ -6751,7 +6727,7 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>-1.1304369320177849</v>
+        <v>-1.1274558045591312</v>
       </c>
       <c r="B175">
         <v>24.485916651212253</v>
@@ -6789,7 +6765,7 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.26391739712268814</v>
+        <v>0.26190621398154806</v>
       </c>
       <c r="B176">
         <v>26.857331726902213</v>
@@ -6827,7 +6803,7 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>-1.2210646200073116</v>
+        <v>-1.2184521247174764</v>
       </c>
       <c r="B177">
         <v>24.356232771919473</v>
@@ -6865,7 +6841,7 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>-0.80839068453168506</v>
+        <v>-0.81232556093650621</v>
       </c>
       <c r="B178">
         <v>30.82792380900165</v>
@@ -6903,7 +6879,7 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>-1.5983321721443136</v>
+        <v>-1.598771771966067</v>
       </c>
       <c r="B179">
         <v>33.467518187978222</v>
@@ -6941,7 +6917,7 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.28048986670144233</v>
+        <v>0.27853061609805402</v>
       </c>
       <c r="B180">
         <v>25.672269482766428</v>
@@ -6979,7 +6955,7 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>-0.19743037927653825</v>
+        <v>-0.20003146765649624</v>
       </c>
       <c r="B181">
         <v>27.802627591786003</v>
@@ -7017,7 +6993,7 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>-1.4672045740460959</v>
+        <v>-1.470381936129753</v>
       </c>
       <c r="B182">
         <v>37.78254298629048</v>
@@ -7055,7 +7031,7 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>0.6637181603118042</v>
+        <v>0.66251859697581528</v>
       </c>
       <c r="B183">
         <v>24.311885701419939</v>
@@ -7093,7 +7069,7 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.39141050368104724</v>
+        <v>0.38965673069142004</v>
       </c>
       <c r="B184">
         <v>25.009415742749962</v>
@@ -7131,7 +7107,7 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>-1.3529157666263965</v>
+        <v>-1.350627648542055</v>
       </c>
       <c r="B185">
         <v>26.565053847528272</v>
@@ -7169,7 +7145,7 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.47828046461455503</v>
+        <v>0.47662522062641777</v>
       </c>
       <c r="B186">
         <v>24.982691193946916</v>
@@ -7207,7 +7183,7 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>0.44430263205972076</v>
+        <v>0.44287255723781499</v>
       </c>
       <c r="B187">
         <v>24.851345158156072</v>
@@ -7245,7 +7221,7 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>0.0067317158778245718</v>
+        <v>0.0042938224838585696</v>
       </c>
       <c r="B188">
         <v>28.825735432761057</v>
@@ -7283,7 +7259,7 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>-1.3457272705396055</v>
+        <v>-1.3431852462029399</v>
       </c>
       <c r="B189">
         <v>25.774818475485574</v>
@@ -7321,7 +7297,7 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>-1.3941467374492389</v>
+        <v>-1.3927023972360539</v>
       </c>
       <c r="B190">
         <v>27.722631234389084</v>
@@ -7359,7 +7335,7 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.33119630819974599</v>
+        <v>0.32922936182362122</v>
       </c>
       <c r="B191">
         <v>22.729550956108252</v>
@@ -7397,7 +7373,7 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>-1.1828626506390718</v>
+        <v>-1.180251401471246</v>
       </c>
       <c r="B192">
         <v>25.06917309539606</v>
@@ -7435,7 +7411,7 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>-1.2225404566536835</v>
+        <v>-1.2224030043358594</v>
       </c>
       <c r="B193">
         <v>28.770051663987179</v>
@@ -7473,7 +7449,7 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>-0.70880386352019442</v>
+        <v>-0.71228668664911055</v>
       </c>
       <c r="B194">
         <v>29.459899839807729</v>
@@ -7511,7 +7487,7 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>-1.3161218937542147</v>
+        <v>-1.3183989168071075</v>
       </c>
       <c r="B195">
         <v>29.148628240352053</v>
@@ -7549,7 +7525,7 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>-0.86375112075626925</v>
+        <v>-0.86720505112739377</v>
       </c>
       <c r="B196">
         <v>29.240056106363593</v>
@@ -7587,7 +7563,7 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>0.050251042281821978</v>
+        <v>0.047970817836262253</v>
       </c>
       <c r="B197">
         <v>25.860213160110732</v>
@@ -7625,7 +7601,7 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>-1.2505667733255326</v>
+        <v>-1.2479619378542504</v>
       </c>
       <c r="B198">
         <v>25.900760957598685</v>
@@ -7663,7 +7639,7 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>0.36149942594502371</v>
+        <v>0.3595480592207162</v>
       </c>
       <c r="B199">
         <v>23.226673440618828</v>
@@ -7701,7 +7677,7 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>-0.24430913778600513</v>
+        <v>-0.24709402641640496</v>
       </c>
       <c r="B200">
         <v>28.381082485328811</v>
@@ -7739,7 +7715,7 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>-1.0792420438023735</v>
+        <v>-1.0824617459406876</v>
       </c>
       <c r="B201">
         <v>30.544302558898927</v>
@@ -7777,7 +7753,7 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>0.36570760043961553</v>
+        <v>0.36373749888372686</v>
       </c>
       <c r="B202">
         <v>24.281901903505677</v>
@@ -7815,7 +7791,7 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>-1.3275206580872032</v>
+        <v>-1.325769267602698</v>
       </c>
       <c r="B203">
         <v>25.13753482224903</v>
@@ -7853,7 +7829,7 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>-1.4927071924058073</v>
+        <v>-1.494427665110265</v>
       </c>
       <c r="B204">
         <v>31.827069005545447</v>
@@ -7891,7 +7867,7 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>-1.4114893534369579</v>
+        <v>-1.4092472931565796</v>
       </c>
       <c r="B205">
         <v>25.691337090730666</v>
@@ -7929,7 +7905,7 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>-0.52431082193245726</v>
+        <v>-0.52744546414425975</v>
       </c>
       <c r="B206">
         <v>26.799218847944928</v>
@@ -7967,7 +7943,7 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.0057069763276966527</v>
+        <v>0.0032608507613428005</v>
       </c>
       <c r="B207">
         <v>24.851614264191173</v>
@@ -8005,7 +7981,7 @@
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.19776511400598762</v>
+        <v>0.19563336282699639</v>
       </c>
       <c r="B208">
         <v>24.530680783912413</v>
@@ -8043,7 +8019,7 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>-1.2891258374887673</v>
+        <v>-1.2923162572672564</v>
       </c>
       <c r="B209">
         <v>34.014754740397137</v>
@@ -8081,7 +8057,7 @@
     </row>
     <row r="210">
       <c r="A210">
-        <v>-0.17535651068982672</v>
+        <v>-0.17802421772756161</v>
       </c>
       <c r="B210">
         <v>27.509872429352953</v>
@@ -8119,7 +8095,7 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>-1.4930347729755304</v>
+        <v>-1.4930797921907417</v>
       </c>
       <c r="B211">
         <v>27.441545094529243</v>
@@ -8157,7 +8133,7 @@
     </row>
     <row r="212">
       <c r="A212">
-        <v>-0.66481830693521615</v>
+        <v>-0.6681874756231605</v>
       </c>
       <c r="B212">
         <v>28.920384852331843</v>
@@ -8195,7 +8171,7 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>-1.3704428771578911</v>
+        <v>-1.3688613021164933</v>
       </c>
       <c r="B213">
         <v>24.805224511475689</v>
@@ -8233,7 +8209,7 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>0.0394832881984774</v>
+        <v>0.037042229763823084</v>
       </c>
       <c r="B214">
         <v>25.690013061477337</v>
@@ -8271,7 +8247,7 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>-1.2804177294695818</v>
+        <v>-1.2784144833036393</v>
       </c>
       <c r="B215">
         <v>24.181569755624192</v>
@@ -8309,7 +8285,7 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>-1.4360531456264221</v>
+        <v>-1.4364055179247581</v>
       </c>
       <c r="B216">
         <v>28.135357626860102</v>
@@ -8347,7 +8323,7 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>-1.2925061303131204</v>
+        <v>-1.2904400863909411</v>
       </c>
       <c r="B217">
         <v>26.103475111502188</v>
@@ -8385,7 +8361,7 @@
     </row>
     <row r="218">
       <c r="A218">
-        <v>-0.52941071462974354</v>
+        <v>-0.53248226606521254</v>
       </c>
       <c r="B218">
         <v>27.616304186704529</v>
@@ -8423,7 +8399,7 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>-1.265584923092238</v>
+        <v>-1.2682639623673264</v>
       </c>
       <c r="B219">
         <v>30.328324164011317</v>
@@ -8461,7 +8437,7 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>-1.0086204680650306</v>
+        <v>-1.0122611058024957</v>
       </c>
       <c r="B220">
         <v>30.57417185772773</v>
@@ -8499,7 +8475,7 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>-0.96012204621514019</v>
+        <v>-0.96335114400470678</v>
       </c>
       <c r="B221">
         <v>32.458812471523906</v>
@@ -8537,7 +8513,7 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>-0.47943393868733053</v>
+        <v>-0.4824767169038488</v>
       </c>
       <c r="B222">
         <v>27.473275537406447</v>
@@ -8575,7 +8551,7 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>-0.24314263144142931</v>
+        <v>-0.24590052363973941</v>
       </c>
       <c r="B223">
         <v>26.06083520302181</v>
@@ -8613,7 +8589,7 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>-0.18747609696726059</v>
+        <v>-0.19014358491054217</v>
       </c>
       <c r="B224">
         <v>24.692052544994159</v>
@@ -8651,7 +8627,7 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>-1.3853956525123148</v>
+        <v>-1.3842529009624096</v>
       </c>
       <c r="B225">
         <v>24.893127258250257</v>
@@ -8689,7 +8665,7 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>-0.50966523641672645</v>
+        <v>-0.51271590410368795</v>
       </c>
       <c r="B226">
         <v>25.284169222465486</v>
@@ -8727,7 +8703,7 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>-1.5159519436305808</v>
+        <v>-1.5166388354185281</v>
       </c>
       <c r="B227">
         <v>25.430617706813777</v>
@@ -8765,7 +8741,7 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>-1.4402215552590145</v>
+        <v>-1.4427239628680413</v>
       </c>
       <c r="B228">
         <v>30.296523380279542</v>
@@ -8803,7 +8779,7 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>-1.4348937343275692</v>
+        <v>-1.4344079236111142</v>
       </c>
       <c r="B229">
         <v>25.152316955419685</v>
@@ -8841,7 +8817,7 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>-0.76933411975205435</v>
+        <v>-0.77253127009700984</v>
       </c>
       <c r="B230">
         <v>28.425656818358366</v>
@@ -8879,7 +8855,7 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>-1.4363482264542031</v>
+        <v>-1.4363558749517746</v>
       </c>
       <c r="B231">
         <v>27.139669066625284</v>
@@ -8917,7 +8893,7 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>-0.42534435421123579</v>
+        <v>-0.42829468586732716</v>
       </c>
       <c r="B232">
         <v>25.358733003644993</v>
@@ -8955,7 +8931,7 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>-0.42139009557751778</v>
+        <v>-0.42432433811049819</v>
       </c>
       <c r="B233">
         <v>25.803279827350611</v>
@@ -8993,7 +8969,7 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>-1.4423734489595705</v>
+        <v>-1.4421314325382111</v>
       </c>
       <c r="B234">
         <v>26.575012936799421</v>
@@ -9031,7 +9007,7 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>-1.4876708511889227</v>
+        <v>-1.4900403241501139</v>
       </c>
       <c r="B235">
         <v>31.380709251587334</v>
@@ -9069,7 +9045,7 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>-0.97779947612098106</v>
+        <v>-0.98131895034804328</v>
       </c>
       <c r="B236">
         <v>30.553174403572378</v>
@@ -9107,7 +9083,7 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>-0.72834034368023537</v>
+        <v>-0.73134609445509435</v>
       </c>
       <c r="B237">
         <v>26.85183648201933</v>
@@ -9145,7 +9121,7 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>-1.4486712475204684</v>
+        <v>-1.448924714720867</v>
       </c>
       <c r="B238">
         <v>26.087920399499751</v>
@@ -9183,7 +9159,7 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>-1.0694677345426906</v>
+        <v>-1.0724987419295111</v>
       </c>
       <c r="B239">
         <v>34.39711779292108</v>
@@ -9221,7 +9197,7 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>-0.47922348310246793</v>
+        <v>-0.48219128468550532</v>
       </c>
       <c r="B240">
         <v>26.889993298885432</v>
@@ -9259,7 +9235,7 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>-1.3877830807181446</v>
+        <v>-1.3907433971821799</v>
       </c>
       <c r="B241">
         <v>27.2975501953125</v>
@@ -9297,7 +9273,7 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>-1.4970784022442889</v>
+        <v>-1.498836830966632</v>
       </c>
       <c r="B242">
         <v>26.045726373553101</v>
@@ -9335,7 +9311,7 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>-0.76162989003131598</v>
+        <v>-0.76481317541734728</v>
       </c>
       <c r="B243">
         <v>30.271512934196753</v>
@@ -9373,7 +9349,7 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>-1.0840407798556733</v>
+        <v>-1.0870105033400319</v>
       </c>
       <c r="B244">
         <v>31.737122278213501</v>
@@ -9411,7 +9387,7 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>-0.69398077198590624</v>
+        <v>-0.69693479596030083</v>
       </c>
       <c r="B245">
         <v>29.776227017916167</v>
@@ -9449,7 +9425,7 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>-1.5283044515216953</v>
+        <v>-1.5297567058484036</v>
       </c>
       <c r="B246">
         <v>28.593278205106003</v>
@@ -9487,7 +9463,7 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>-1.4234103560366105</v>
+        <v>-1.4259880077313243</v>
       </c>
       <c r="B247">
         <v>29.534987748436663</v>
@@ -9525,7 +9501,7 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>-1.2080143358814206</v>
+        <v>-1.211291072750645</v>
       </c>
       <c r="B248">
         <v>28.922874426539941</v>
@@ -9563,7 +9539,7 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>-0.96270057527204711</v>
+        <v>-0.96577939950824288</v>
       </c>
       <c r="B249">
         <v>33.244986428804921</v>
@@ -9601,7 +9577,7 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>-1.2774143917087788</v>
+        <v>-1.2803480534172658</v>
       </c>
       <c r="B250">
         <v>31.44602849651185</v>
@@ -9639,7 +9615,7 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>-1.3541320365421265</v>
+        <v>-1.3569626527999814</v>
       </c>
       <c r="B251">
         <v>28.282224217547647</v>
